--- a/data/excel_files/월_환율.xlsx
+++ b/data/excel_files/월_환율.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/baegseungho/excel_files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/baegseungho/건국대학교/2020-2/졸업프로젝트/데이터/최종정제/excel_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4F20DE8D-6435-5B41-BEA2-85CA9EF59135}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FD6CA50-2435-4F4B-9793-07FB860D024F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4160" yWindow="2760" windowWidth="27900" windowHeight="16940" xr2:uid="{9DD5083A-AF0D-AD4C-92C8-DE20D229811B}"/>
+    <workbookView xWindow="11600" yWindow="7540" windowWidth="27900" windowHeight="16940" xr2:uid="{9DD5083A-AF0D-AD4C-92C8-DE20D229811B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -409,10 +409,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49E906F5-8CF6-6E4A-99FC-BEB1C02B9347}">
-  <dimension ref="A1:B210"/>
+  <dimension ref="A1:B217"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B210"/>
+    <sheetView tabSelected="1" topLeftCell="A198" workbookViewId="0">
+      <selection activeCell="B218" sqref="B218"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -2097,6 +2097,62 @@
         <v>1238.5</v>
       </c>
     </row>
+    <row r="211" spans="1:2">
+      <c r="A211" s="1">
+        <v>43983</v>
+      </c>
+      <c r="B211" s="2">
+        <v>1203</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2">
+      <c r="A212" s="1">
+        <v>44013</v>
+      </c>
+      <c r="B212" s="2">
+        <v>1191.3</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2">
+      <c r="A213" s="1">
+        <v>44044</v>
+      </c>
+      <c r="B213" s="2">
+        <v>1187.8</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2">
+      <c r="A214" s="1">
+        <v>44075</v>
+      </c>
+      <c r="B214" s="2">
+        <v>1169.5</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2">
+      <c r="A215" s="1">
+        <v>44105</v>
+      </c>
+      <c r="B215" s="2">
+        <v>1135.0999999999999</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2">
+      <c r="A216" s="1">
+        <v>44136</v>
+      </c>
+      <c r="B216" s="2">
+        <v>1106.5</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2">
+      <c r="A217" s="1">
+        <v>44166</v>
+      </c>
+      <c r="B217" s="2">
+        <v>1086.3</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
